--- a/biology/Médecine/Elisabeth_Wollman/Elisabeth_Wollman.xlsx
+++ b/biology/Médecine/Elisabeth_Wollman/Elisabeth_Wollman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elisabeth Wollman (1888‑1943) est une biologiste française d'origine juive russe, morte en déportation à Auschwitz.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elisabeth Michelis est née, le 15 août 1888, dans une famille juive de Minsk (Empire russe).
 Elle fait des études de physique à l’université de Liège, puis s'installe à Paris ou elle se marie, en 1909, avec Eugène Wollman.
-Elle est arrêtée le 4 décembre 1943 au domicile familial, 12 rue Olier, dans le 15e arrondissement de Paris[1], et déportée, avec son mari Eugène Wollman à Auschwitz, par le convoi 63, le 17 décembre 1943, partant du camp de Drancy et assassinés à leur arrivée à Auschwitz[2].
+Elle est arrêtée le 4 décembre 1943 au domicile familial, 12 rue Olier, dans le 15e arrondissement de Paris, et déportée, avec son mari Eugène Wollman à Auschwitz, par le convoi 63, le 17 décembre 1943, partant du camp de Drancy et assassinés à leur arrivée à Auschwitz.
 Elle est la mère d'Élie Wollman, professeur et sous-directeur (1966-85) de l’Institut Pasteur.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle collabore, à titre bénévole, à l'Institut Pasteur, d'abord aux travaux de laboratoire de Jacques Duclaux (1910‑1920), puis aux travaux scientifiques d'Eugène Wollman (1915, 1923‑1943).
 </t>
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>En collaboration avec Eugène Wollman
-« Les "phases" des bactériophages (facteurs lysogenes) », in : Comptes Rendus Hebdomadaires des Séances et Mémoires de la Société de Biologie, 124, 1937: 931–934, lire en ligne sur Gallica.
+          <t>En collaboration avec Eugène Wollman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Les "phases" des bactériophages (facteurs lysogenes) », in : Comptes Rendus Hebdomadaires des Séances et Mémoires de la Société de Biologie, 124, 1937: 931–934, lire en ligne sur Gallica.
 « Les microbes dans l'alimentation des têtards », in : Comptes rendus des séances de la Société de biologie et de ses filiales, 1915, 67, t. 78, p. 195-197, lire en ligne sur Gallica.
 « Sur la transmission "parahéréditaire" de caractères chez les bactéries », in : Comptes rendus des séances de la Société de biologie et de ses filiales, 93, 1925: 1568-1569.
 « Bactériophagie spontanée et dissociation du Bacillus subtilis », in : Comptes rendus des séances de la Société de biologie et de ses filiales, 1930, 82, vol. 105, t.3, p. 248-250, lire en ligne sur Gallica.
@@ -614,9 +635,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Une plaque à la mémoire d’Eugène, Elisabeth et Élie Wollman, apposée sur la façade du pavillon Émile-Roux de l’Institut Pasteur est dévoilée le 23 septembre 2009, en présence de la professeur Alice Dautry, directrice générale de l’Institut Pasteur et de membres de la famille Wollman[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une plaque à la mémoire d’Eugène, Elisabeth et Élie Wollman, apposée sur la façade du pavillon Émile-Roux de l’Institut Pasteur est dévoilée le 23 septembre 2009, en présence de la professeur Alice Dautry, directrice générale de l’Institut Pasteur et de membres de la famille Wollman.</t>
         </is>
       </c>
     </row>
